--- a/Week_02/exercises/chicken_data.xlsx
+++ b/Week_02/exercises/chicken_data.xlsx
@@ -684,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2435.836917152873</v>
+        <v>2239.629097286036</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2157.180544609028</v>
+        <v>2707.033202966265</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -712,7 +712,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2558.418034509755</v>
+        <v>2253.829662081059</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2679.200608096602</v>
+        <v>2352.543592610898</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2556.855145138803</v>
+        <v>2012.05583220978</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -754,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2749.335405965483</v>
+        <v>2323.884608537794</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -768,7 +768,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2246.565466332238</v>
+        <v>2438.838419132143</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -782,7 +782,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2959.190869729992</v>
+        <v>2432.723951387828</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -796,7 +796,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2728.468814160995</v>
+        <v>1890.654922236469</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -810,7 +810,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2449.062959399676</v>
+        <v>2479.665453808024</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -824,7 +824,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2196.644757527044</v>
+        <v>2528.996456097687</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
@@ -838,7 +838,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2504.121595305146</v>
+        <v>2566.763283352474</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2400.690361816204</v>
+        <v>2420.990821560089</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -866,7 +866,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2635.299215849555</v>
+        <v>2335.650419199306</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -880,7 +880,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2512.049450608349</v>
+        <v>2847.259919025686</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -894,7 +894,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2548.551683322371</v>
+        <v>2203.298757606645</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -908,7 +908,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2613.606983816444</v>
+        <v>2791.774169036512</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -922,7 +922,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2603.844751609005</v>
+        <v>2474.718767694895</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
@@ -936,7 +936,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2258.823117658525</v>
+        <v>2157.080790606263</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
@@ -950,7 +950,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2586.092457619088</v>
+        <v>1956.223171797332</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -964,7 +964,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2415.373741013068</v>
+        <v>2381.734115237165</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -978,7 +978,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2315.352861083068</v>
+        <v>2591.940750444192</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2411.213526488157</v>
+        <v>2320.19987173448</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -1006,7 +1006,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2707.369995982585</v>
+        <v>2078.071552355953</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -1020,7 +1020,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2828.033114144734</v>
+        <v>2760.420313426983</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -1034,7 +1034,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>2805.739135758056</v>
+        <v>2641.783953647824</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
@@ -1048,7 +1048,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2334.902532579886</v>
+        <v>2047.102781927508</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -1062,7 +1062,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>2700.569795953575</v>
+        <v>1964.087434972811</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -1076,7 +1076,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>2216.46657649511</v>
+        <v>2115.442828196542</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -1090,7 +1090,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>2674.342153167182</v>
+        <v>2548.066987855171</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -1104,7 +1104,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2352.121480965922</v>
+        <v>2291.745881264925</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -1118,7 +1118,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2720.625199061993</v>
+        <v>2319.792503141344</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>2927.473812362682</v>
+        <v>2629.684252383073</v>
       </c>
       <c r="C34" t="s">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>2219.88552286225</v>
+        <v>2636.806379042664</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -1160,7 +1160,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>2479.038035806728</v>
+        <v>2631.573253330254</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -1174,7 +1174,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>2095.447620693532</v>
+        <v>2548.456627212743</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -1188,7 +1188,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>2316.371335305255</v>
+        <v>2453.100791361331</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
@@ -1202,7 +1202,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>2277.808500381769</v>
+        <v>2533.63358674975</v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>2708.372823419244</v>
+        <v>2600.531782801082</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -1230,7 +1230,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>2419.522113597982</v>
+        <v>2117.814969547225</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -1244,7 +1244,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>2559.902451574447</v>
+        <v>2590.783611672212</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -1258,7 +1258,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>2373.096997799733</v>
+        <v>2716.866276102787</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
@@ -1272,7 +1272,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>2813.339515670859</v>
+        <v>2577.536008764782</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -1286,7 +1286,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>2336.714468537502</v>
+        <v>2446.720747467367</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
@@ -1300,7 +1300,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>2499.189550963161</v>
+        <v>2368.35684789603</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -1314,7 +1314,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>3165.956792558491</v>
+        <v>2723.696823539788</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -1328,7 +1328,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>2375.659024484306</v>
+        <v>2927.768327961651</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
@@ -1342,7 +1342,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>2683.999631821952</v>
+        <v>2527.409065732748</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
@@ -1356,7 +1356,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>2270.759002694604</v>
+        <v>2607.094222656585</v>
       </c>
       <c r="C50" t="s">
         <v>3</v>
@@ -1370,7 +1370,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>2386.460316291711</v>
+        <v>3086.902764210532</v>
       </c>
       <c r="C51" t="s">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>2411.413683034364</v>
+        <v>2881.595207105506</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -1398,7 +1398,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1980.188220613222</v>
+        <v>2160.647578663836</v>
       </c>
       <c r="C53" t="s">
         <v>3</v>
@@ -1412,7 +1412,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2061.673231776081</v>
+        <v>3113.583975493635</v>
       </c>
       <c r="C54" t="s">
         <v>3</v>
@@ -1426,7 +1426,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>2288.575436367175</v>
+        <v>2871.377667596221</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -1440,7 +1440,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2400.344192119332</v>
+        <v>2826.37742676965</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
@@ -1454,7 +1454,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>2063.962021565017</v>
+        <v>2498.831170022682</v>
       </c>
       <c r="C57" t="s">
         <v>3</v>
@@ -1468,7 +1468,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>2351.912752193953</v>
+        <v>2534.77078153334</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
@@ -1482,7 +1482,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>2587.234531987627</v>
+        <v>2367.449294994597</v>
       </c>
       <c r="C59" t="s">
         <v>4</v>
@@ -1496,7 +1496,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>2597.946718573713</v>
+        <v>2226.367337148186</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
@@ -1510,7 +1510,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>2720.208329528295</v>
+        <v>2577.235175129086</v>
       </c>
       <c r="C61" t="s">
         <v>3</v>
@@ -1524,7 +1524,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>2264.112288476385</v>
+        <v>2251.534095426352</v>
       </c>
       <c r="C62" t="s">
         <v>4</v>
@@ -1538,7 +1538,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>2443.494437938852</v>
+        <v>2285.064238751386</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
@@ -1552,7 +1552,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>2549.443680121648</v>
+        <v>2558.631193551305</v>
       </c>
       <c r="C64" t="s">
         <v>0</v>
@@ -1566,7 +1566,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>2933.223660043263</v>
+        <v>2453.663555242219</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
@@ -1580,7 +1580,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>2544.096037928604</v>
+        <v>2418.400957223012</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
@@ -1594,7 +1594,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>2747.052614473884</v>
+        <v>2586.734965538742</v>
       </c>
       <c r="C67" t="s">
         <v>0</v>
@@ -1608,7 +1608,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>2756.049072383002</v>
+        <v>2348.207705846674</v>
       </c>
       <c r="C68" t="s">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>1995.268720992748</v>
+        <v>2419.728688528145</v>
       </c>
       <c r="C69" t="s">
         <v>0</v>
@@ -1636,7 +1636,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>2721.741529605744</v>
+        <v>2660.314982446846</v>
       </c>
       <c r="C70" t="s">
         <v>4</v>
@@ -1650,7 +1650,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>3101.184169675052</v>
+        <v>2677.055891221141</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
@@ -1664,7 +1664,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>2237.994464245381</v>
+        <v>2379.138827282516</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
@@ -1678,7 +1678,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>2585.124156858858</v>
+        <v>2195.112109914108</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
@@ -1692,7 +1692,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>2401.339725534916</v>
+        <v>2279.761691464777</v>
       </c>
       <c r="C74" t="s">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>2145.456781038363</v>
+        <v>2280.338961328102</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
@@ -1720,7 +1720,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>2512.675996338865</v>
+        <v>2598.951860831457</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
@@ -1734,7 +1734,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>2483.165499312508</v>
+        <v>2518.96501257719</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
@@ -1748,7 +1748,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>2480.321535060965</v>
+        <v>2506.884056669641</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
@@ -1762,7 +1762,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>2803.635402370798</v>
+        <v>2342.324686709851</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
@@ -1776,7 +1776,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>2479.062020985308</v>
+        <v>2517.971850978365</v>
       </c>
       <c r="C80" t="s">
         <v>4</v>
@@ -1790,7 +1790,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>2698.708061434907</v>
+        <v>2845.170518817476</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
@@ -1804,7 +1804,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>2253.844101819943</v>
+        <v>2108.514662096432</v>
       </c>
       <c r="C82" t="s">
         <v>4</v>
@@ -1818,7 +1818,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>2721.631003150052</v>
+        <v>2124.197924716562</v>
       </c>
       <c r="C83" t="s">
         <v>3</v>
@@ -1832,7 +1832,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>2674.675917214097</v>
+        <v>2688.114852336986</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
@@ -1846,7 +1846,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>2804.627274782364</v>
+        <v>2498.438765004503</v>
       </c>
       <c r="C85" t="s">
         <v>0</v>
@@ -1860,7 +1860,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>2062.533735395846</v>
+        <v>2588.220310121061</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
@@ -1874,7 +1874,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>2814.867887720169</v>
+        <v>2394.634894935507</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
@@ -1888,7 +1888,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>2414.638037314444</v>
+        <v>2369.372837324029</v>
       </c>
       <c r="C88" t="s">
         <v>0</v>
@@ -1902,7 +1902,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>2283.506643128605</v>
+        <v>2492.237624232634</v>
       </c>
       <c r="C89" t="s">
         <v>3</v>
@@ -1916,7 +1916,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>2507.744559787777</v>
+        <v>2178.589334426314</v>
       </c>
       <c r="C90" t="s">
         <v>3</v>
@@ -1930,7 +1930,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>2235.94787703692</v>
+        <v>2504.844945954271</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
@@ -1944,7 +1944,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>2604.1220773692</v>
+        <v>2277.608182556008</v>
       </c>
       <c r="C92" t="s">
         <v>3</v>
@@ -1958,7 +1958,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>2483.91068518715</v>
+        <v>2921.926262719294</v>
       </c>
       <c r="C93" t="s">
         <v>0</v>
@@ -1972,7 +1972,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>2879.363471137186</v>
+        <v>2337.514444526544</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
@@ -1986,7 +1986,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>2509.057321974064</v>
+        <v>2650.930697661508</v>
       </c>
       <c r="C95" t="s">
         <v>2</v>
@@ -2000,7 +2000,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>2290.971897351606</v>
+        <v>2416.280799553641</v>
       </c>
       <c r="C96" t="s">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>2657.234721949924</v>
+        <v>2326.91958929459</v>
       </c>
       <c r="C97" t="s">
         <v>2</v>
@@ -2028,7 +2028,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>2353.422440800807</v>
+        <v>2441.412013795753</v>
       </c>
       <c r="C98" t="s">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>2681.538659293906</v>
+        <v>2521.735520486065</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
@@ -2056,7 +2056,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>2563.850789057699</v>
+        <v>2249.163270468199</v>
       </c>
       <c r="C100" t="s">
         <v>4</v>
@@ -2070,7 +2070,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>2342.702012511284</v>
+        <v>2287.769621908611</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
